--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33A66A1-8E1F-4CB1-B3ED-71DA4E437A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C413D-0CCA-4401-8952-88D07322C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBA3762A-45F5-41C8-9E5C-6A1E6AD2BB94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>firstName</t>
   </si>
@@ -51,28 +51,37 @@
     <t>ram123</t>
   </si>
   <si>
-    <t>parth</t>
-  </si>
-  <si>
     <t>patel</t>
   </si>
   <si>
-    <t>parth@gmail.com</t>
-  </si>
-  <si>
-    <t>parth123</t>
-  </si>
-  <si>
-    <t>amit</t>
-  </si>
-  <si>
-    <t>thakkar</t>
-  </si>
-  <si>
-    <t>amit@gmail.com</t>
-  </si>
-  <si>
-    <t>amit123</t>
+    <t>preet</t>
+  </si>
+  <si>
+    <t>preet.shah@gmail.com</t>
+  </si>
+  <si>
+    <t>preet123</t>
+  </si>
+  <si>
+    <t>marlin</t>
+  </si>
+  <si>
+    <t>marlin.patel@gmail.com</t>
+  </si>
+  <si>
+    <t>marlin123</t>
+  </si>
+  <si>
+    <t>kunal</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>kunal.abc@gmail.com</t>
+  </si>
+  <si>
+    <t>kunal123</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B03647-B6E1-4B7B-9CEC-D86D44B4C7B5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,30 +482,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -504,6 +527,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{73231AD4-A1D6-43A3-979E-ACDD41C32D1B}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{06A4908A-B10A-44FF-BEC1-EA966DFB6DE9}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{1060C1F9-2872-4345-BBE7-26D939CC0CA3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7BB5779E-E5AB-4FB6-BAC5-EB07DA660159}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C413D-0CCA-4401-8952-88D07322C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A0CBF-64D8-4DBD-9972-3B430FF83927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBA3762A-45F5-41C8-9E5C-6A1E6AD2BB94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>firstName</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>kunal123</t>
+  </si>
+  <si>
+    <t>regularity</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>testPerformance</t>
   </si>
 </sst>
 </file>
@@ -444,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B03647-B6E1-4B7B-9CEC-D86D44B4C7B5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +477,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -479,8 +503,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -493,8 +529,20 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -507,8 +555,20 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -520,6 +580,18 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
